--- a/document/04_案件/02_結合テスト/テスト仕様書_連動機能.xlsx
+++ b/document/04_案件/02_結合テスト/テスト仕様書_連動機能.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D01A596-B1C5-4F22-AF26-1DC4971BEBC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236C0E2F-B30A-4726-B677-C170F16F5DB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" tabRatio="760" activeTab="1" xr2:uid="{3C57107D-1214-43C9-9569-E45250B9A15F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="760" activeTab="1" xr2:uid="{3C57107D-1214-43C9-9569-E45250B9A15F}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -1080,13 +1080,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1098,12 +1131,33 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1121,60 +1175,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,9 +1494,9 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G12" s="8" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1514,7 +1514,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1522,7 +1522,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1549,1589 +1549,1589 @@
       <selection activeCell="F4" sqref="F4:K4"/>
       <selection pane="topRight" activeCell="F4" sqref="F4:K4"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4:K4"/>
-      <selection pane="bottomRight" activeCell="AJ5" sqref="AJ5:AX5"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="4.19921875" style="2"/>
-    <col min="12" max="16384" width="4.19921875" style="1"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="4.25" style="2"/>
+    <col min="12" max="16384" width="4.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="31" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="19" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19" t="s">
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19" t="s">
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19" t="s">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19" t="s">
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="29"/>
+      <c r="BD2" s="29"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="29"/>
+      <c r="BG2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="19" t="s">
+      <c r="BH2" s="29"/>
+      <c r="BI2" s="29"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" s="19"/>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="23" t="s">
+      <c r="BL2" s="29"/>
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="25"/>
-      <c r="BS2" s="19" t="s">
+      <c r="BP2" s="42"/>
+      <c r="BQ2" s="42"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BT2" s="19"/>
-      <c r="BU2" s="19"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="19"/>
-      <c r="BX2" s="19"/>
-      <c r="BY2" s="19"/>
-      <c r="BZ2" s="19"/>
+      <c r="BT2" s="29"/>
+      <c r="BU2" s="29"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="29"/>
+      <c r="BX2" s="29"/>
+      <c r="BY2" s="29"/>
+      <c r="BZ2" s="29"/>
     </row>
-    <row r="3" spans="1:78" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:78" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="27" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27" t="s">
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27" t="s">
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27" t="s">
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27" t="s">
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
-      <c r="BD3" s="27"/>
-      <c r="BE3" s="27"/>
-      <c r="BF3" s="27"/>
-      <c r="BG3" s="29" t="s">
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="31"/>
+      <c r="BG3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="BH3" s="29"/>
-      <c r="BI3" s="29"/>
-      <c r="BJ3" s="29"/>
-      <c r="BK3" s="30">
+      <c r="BH3" s="33"/>
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="34">
         <v>44116</v>
       </c>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="29" t="s">
+      <c r="BL3" s="34"/>
+      <c r="BM3" s="34"/>
+      <c r="BN3" s="34"/>
+      <c r="BO3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="BP3" s="29"/>
-      <c r="BQ3" s="29"/>
-      <c r="BR3" s="29"/>
-      <c r="BS3" s="27"/>
-      <c r="BT3" s="27"/>
-      <c r="BU3" s="27"/>
-      <c r="BV3" s="27"/>
-      <c r="BW3" s="27"/>
-      <c r="BX3" s="27"/>
-      <c r="BY3" s="27"/>
-      <c r="BZ3" s="27"/>
+      <c r="BP3" s="33"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="33"/>
+      <c r="BS3" s="31"/>
+      <c r="BT3" s="31"/>
+      <c r="BU3" s="31"/>
+      <c r="BV3" s="31"/>
+      <c r="BW3" s="31"/>
+      <c r="BX3" s="31"/>
+      <c r="BY3" s="31"/>
+      <c r="BZ3" s="31"/>
     </row>
-    <row r="4" spans="1:78" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:78" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <f t="shared" ref="A4:B21" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="12" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12" t="s">
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12" t="s">
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="12" t="s">
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="12"/>
-      <c r="BG4" s="13" t="s">
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="BH4" s="13"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="13"/>
-      <c r="BK4" s="18"/>
-      <c r="BL4" s="13"/>
-      <c r="BM4" s="13"/>
-      <c r="BN4" s="13"/>
-      <c r="BO4" s="13"/>
-      <c r="BP4" s="13"/>
-      <c r="BQ4" s="13"/>
-      <c r="BR4" s="13"/>
-      <c r="BS4" s="12"/>
-      <c r="BT4" s="12"/>
-      <c r="BU4" s="12"/>
-      <c r="BV4" s="12"/>
-      <c r="BW4" s="12"/>
-      <c r="BX4" s="12"/>
-      <c r="BY4" s="12"/>
-      <c r="BZ4" s="12"/>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="18"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="25"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
+      <c r="BO4" s="18"/>
+      <c r="BP4" s="18"/>
+      <c r="BQ4" s="18"/>
+      <c r="BR4" s="18"/>
+      <c r="BS4" s="20"/>
+      <c r="BT4" s="20"/>
+      <c r="BU4" s="20"/>
+      <c r="BV4" s="20"/>
+      <c r="BW4" s="20"/>
+      <c r="BX4" s="20"/>
+      <c r="BY4" s="20"/>
+      <c r="BZ4" s="20"/>
     </row>
-    <row r="5" spans="1:78" ht="239.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:78" ht="239.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="12" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12" t="s">
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12" t="s">
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12" t="s">
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12" t="s">
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="13" t="s">
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="20"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="20"/>
+      <c r="BG5" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="BH5" s="13"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="18"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="13"/>
-      <c r="BQ5" s="13"/>
-      <c r="BR5" s="13"/>
-      <c r="BS5" s="12"/>
-      <c r="BT5" s="12"/>
-      <c r="BU5" s="12"/>
-      <c r="BV5" s="12"/>
-      <c r="BW5" s="12"/>
-      <c r="BX5" s="12"/>
-      <c r="BY5" s="12"/>
-      <c r="BZ5" s="12"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="18"/>
+      <c r="BJ5" s="18"/>
+      <c r="BK5" s="25"/>
+      <c r="BL5" s="18"/>
+      <c r="BM5" s="18"/>
+      <c r="BN5" s="18"/>
+      <c r="BO5" s="18"/>
+      <c r="BP5" s="18"/>
+      <c r="BQ5" s="18"/>
+      <c r="BR5" s="18"/>
+      <c r="BS5" s="20"/>
+      <c r="BT5" s="20"/>
+      <c r="BU5" s="20"/>
+      <c r="BV5" s="20"/>
+      <c r="BW5" s="20"/>
+      <c r="BX5" s="20"/>
+      <c r="BY5" s="20"/>
+      <c r="BZ5" s="20"/>
     </row>
-    <row r="6" spans="1:78" ht="360" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:78" ht="360" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="12" t="s">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12" t="s">
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12" t="s">
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12" t="s">
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="13" t="s">
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="20"/>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="BH6" s="13"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="13"/>
-      <c r="BK6" s="18"/>
-      <c r="BL6" s="13"/>
-      <c r="BM6" s="13"/>
-      <c r="BN6" s="13"/>
-      <c r="BO6" s="13"/>
-      <c r="BP6" s="13"/>
-      <c r="BQ6" s="13"/>
-      <c r="BR6" s="13"/>
-      <c r="BS6" s="12"/>
-      <c r="BT6" s="12"/>
-      <c r="BU6" s="12"/>
-      <c r="BV6" s="12"/>
-      <c r="BW6" s="12"/>
-      <c r="BX6" s="12"/>
-      <c r="BY6" s="12"/>
-      <c r="BZ6" s="12"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="25"/>
+      <c r="BL6" s="18"/>
+      <c r="BM6" s="18"/>
+      <c r="BN6" s="18"/>
+      <c r="BO6" s="18"/>
+      <c r="BP6" s="18"/>
+      <c r="BQ6" s="18"/>
+      <c r="BR6" s="18"/>
+      <c r="BS6" s="20"/>
+      <c r="BT6" s="20"/>
+      <c r="BU6" s="20"/>
+      <c r="BV6" s="20"/>
+      <c r="BW6" s="20"/>
+      <c r="BX6" s="20"/>
+      <c r="BY6" s="20"/>
+      <c r="BZ6" s="20"/>
     </row>
-    <row r="7" spans="1:78" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:78" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="34" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="38" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38" t="s">
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38" t="s">
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38" t="s">
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="38"/>
-      <c r="BE7" s="38"/>
-      <c r="BF7" s="38"/>
-      <c r="BG7" s="39" t="s">
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="39"/>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="39"/>
-      <c r="BS7" s="38"/>
-      <c r="BT7" s="38"/>
-      <c r="BU7" s="38"/>
-      <c r="BV7" s="38"/>
-      <c r="BW7" s="38"/>
-      <c r="BX7" s="38"/>
-      <c r="BY7" s="38"/>
-      <c r="BZ7" s="38"/>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="19"/>
+      <c r="BJ7" s="19"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="19"/>
+      <c r="BM7" s="19"/>
+      <c r="BN7" s="19"/>
+      <c r="BO7" s="19"/>
+      <c r="BP7" s="19"/>
+      <c r="BQ7" s="19"/>
+      <c r="BR7" s="19"/>
+      <c r="BS7" s="14"/>
+      <c r="BT7" s="14"/>
+      <c r="BU7" s="14"/>
+      <c r="BV7" s="14"/>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14"/>
+      <c r="BY7" s="14"/>
+      <c r="BZ7" s="14"/>
     </row>
-    <row r="8" spans="1:78" ht="239.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:78" ht="239.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="34" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="38" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38" t="s">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38" t="s">
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38" t="s">
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="38"/>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="38"/>
-      <c r="AX8" s="38"/>
-      <c r="AY8" s="38" t="s">
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AZ8" s="38"/>
-      <c r="BA8" s="38"/>
-      <c r="BB8" s="38"/>
-      <c r="BC8" s="38"/>
-      <c r="BD8" s="38"/>
-      <c r="BE8" s="38"/>
-      <c r="BF8" s="38"/>
-      <c r="BG8" s="39" t="s">
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="BH8" s="39"/>
-      <c r="BI8" s="39"/>
-      <c r="BJ8" s="39"/>
-      <c r="BK8" s="40"/>
-      <c r="BL8" s="39"/>
-      <c r="BM8" s="39"/>
-      <c r="BN8" s="39"/>
-      <c r="BO8" s="39"/>
-      <c r="BP8" s="39"/>
-      <c r="BQ8" s="39"/>
-      <c r="BR8" s="39"/>
-      <c r="BS8" s="38"/>
-      <c r="BT8" s="38"/>
-      <c r="BU8" s="38"/>
-      <c r="BV8" s="38"/>
-      <c r="BW8" s="38"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="38"/>
-      <c r="BZ8" s="38"/>
+      <c r="BH8" s="19"/>
+      <c r="BI8" s="19"/>
+      <c r="BJ8" s="19"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="19"/>
+      <c r="BM8" s="19"/>
+      <c r="BN8" s="19"/>
+      <c r="BO8" s="19"/>
+      <c r="BP8" s="19"/>
+      <c r="BQ8" s="19"/>
+      <c r="BR8" s="19"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="14"/>
+      <c r="BU8" s="14"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
     </row>
-    <row r="9" spans="1:78" ht="304.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:78" ht="304.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="34" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="38" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38" t="s">
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38" t="s">
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38"/>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38"/>
-      <c r="AY9" s="38" t="s">
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
-      <c r="BB9" s="38"/>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="38"/>
-      <c r="BG9" s="39" t="s">
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="BH9" s="39"/>
-      <c r="BI9" s="39"/>
-      <c r="BJ9" s="39"/>
-      <c r="BK9" s="40"/>
-      <c r="BL9" s="39"/>
-      <c r="BM9" s="39"/>
-      <c r="BN9" s="39"/>
-      <c r="BO9" s="39"/>
-      <c r="BP9" s="39"/>
-      <c r="BQ9" s="39"/>
-      <c r="BR9" s="39"/>
-      <c r="BS9" s="38"/>
-      <c r="BT9" s="38"/>
-      <c r="BU9" s="38"/>
-      <c r="BV9" s="38"/>
-      <c r="BW9" s="38"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19"/>
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19"/>
+      <c r="BS9" s="14"/>
+      <c r="BT9" s="14"/>
+      <c r="BU9" s="14"/>
+      <c r="BV9" s="14"/>
+      <c r="BW9" s="14"/>
+      <c r="BX9" s="14"/>
+      <c r="BY9" s="14"/>
+      <c r="BZ9" s="14"/>
     </row>
-    <row r="10" spans="1:78" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:78" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="34" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="38" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38" t="s">
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38" t="s">
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38" t="s">
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="38"/>
-      <c r="AT10" s="38"/>
-      <c r="AU10" s="38"/>
-      <c r="AV10" s="38"/>
-      <c r="AW10" s="38"/>
-      <c r="AX10" s="38"/>
-      <c r="AY10" s="38" t="s">
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AZ10" s="38"/>
-      <c r="BA10" s="38"/>
-      <c r="BB10" s="38"/>
-      <c r="BC10" s="38"/>
-      <c r="BD10" s="38"/>
-      <c r="BE10" s="38"/>
-      <c r="BF10" s="38"/>
-      <c r="BG10" s="39" t="s">
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="BH10" s="39"/>
-      <c r="BI10" s="39"/>
-      <c r="BJ10" s="39"/>
-      <c r="BK10" s="40"/>
-      <c r="BL10" s="39"/>
-      <c r="BM10" s="39"/>
-      <c r="BN10" s="39"/>
-      <c r="BO10" s="39"/>
-      <c r="BP10" s="39"/>
-      <c r="BQ10" s="39"/>
-      <c r="BR10" s="39"/>
-      <c r="BS10" s="38"/>
-      <c r="BT10" s="38"/>
-      <c r="BU10" s="38"/>
-      <c r="BV10" s="38"/>
-      <c r="BW10" s="38"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="38"/>
-      <c r="BZ10" s="38"/>
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="19"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="19"/>
+      <c r="BM10" s="19"/>
+      <c r="BN10" s="19"/>
+      <c r="BO10" s="19"/>
+      <c r="BP10" s="19"/>
+      <c r="BQ10" s="19"/>
+      <c r="BR10" s="19"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="14"/>
+      <c r="BU10" s="14"/>
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="14"/>
+      <c r="BX10" s="14"/>
+      <c r="BY10" s="14"/>
+      <c r="BZ10" s="14"/>
     </row>
-    <row r="11" spans="1:78" ht="239.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:78" ht="239.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="34" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="38" t="s">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38" t="s">
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38" t="s">
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38" t="s">
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="38"/>
-      <c r="AT11" s="38"/>
-      <c r="AU11" s="38"/>
-      <c r="AV11" s="38"/>
-      <c r="AW11" s="38"/>
-      <c r="AX11" s="38"/>
-      <c r="AY11" s="38" t="s">
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AZ11" s="38"/>
-      <c r="BA11" s="38"/>
-      <c r="BB11" s="38"/>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="38"/>
-      <c r="BF11" s="38"/>
-      <c r="BG11" s="39" t="s">
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="BH11" s="39"/>
-      <c r="BI11" s="39"/>
-      <c r="BJ11" s="39"/>
-      <c r="BK11" s="40"/>
-      <c r="BL11" s="39"/>
-      <c r="BM11" s="39"/>
-      <c r="BN11" s="39"/>
-      <c r="BO11" s="39"/>
-      <c r="BP11" s="39"/>
-      <c r="BQ11" s="39"/>
-      <c r="BR11" s="39"/>
-      <c r="BS11" s="38"/>
-      <c r="BT11" s="38"/>
-      <c r="BU11" s="38"/>
-      <c r="BV11" s="38"/>
-      <c r="BW11" s="38"/>
-      <c r="BX11" s="38"/>
-      <c r="BY11" s="38"/>
-      <c r="BZ11" s="38"/>
+      <c r="BH11" s="19"/>
+      <c r="BI11" s="19"/>
+      <c r="BJ11" s="19"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="19"/>
+      <c r="BM11" s="19"/>
+      <c r="BN11" s="19"/>
+      <c r="BO11" s="19"/>
+      <c r="BP11" s="19"/>
+      <c r="BQ11" s="19"/>
+      <c r="BR11" s="19"/>
+      <c r="BS11" s="14"/>
+      <c r="BT11" s="14"/>
+      <c r="BU11" s="14"/>
+      <c r="BV11" s="14"/>
+      <c r="BW11" s="14"/>
+      <c r="BX11" s="14"/>
+      <c r="BY11" s="14"/>
+      <c r="BZ11" s="14"/>
     </row>
-    <row r="12" spans="1:78" ht="304.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:78" ht="304.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="34" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="38" t="s">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38" t="s">
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38" t="s">
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38" t="s">
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38" t="s">
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="38"/>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="38"/>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="38"/>
-      <c r="BG12" s="39" t="s">
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="39"/>
-      <c r="BJ12" s="39"/>
-      <c r="BK12" s="40"/>
-      <c r="BL12" s="39"/>
-      <c r="BM12" s="39"/>
-      <c r="BN12" s="39"/>
-      <c r="BO12" s="39"/>
-      <c r="BP12" s="39"/>
-      <c r="BQ12" s="39"/>
-      <c r="BR12" s="39"/>
-      <c r="BS12" s="38"/>
-      <c r="BT12" s="38"/>
-      <c r="BU12" s="38"/>
-      <c r="BV12" s="38"/>
-      <c r="BW12" s="38"/>
-      <c r="BX12" s="38"/>
-      <c r="BY12" s="38"/>
-      <c r="BZ12" s="38"/>
+      <c r="BH12" s="19"/>
+      <c r="BI12" s="19"/>
+      <c r="BJ12" s="19"/>
+      <c r="BK12" s="21"/>
+      <c r="BL12" s="19"/>
+      <c r="BM12" s="19"/>
+      <c r="BN12" s="19"/>
+      <c r="BO12" s="19"/>
+      <c r="BP12" s="19"/>
+      <c r="BQ12" s="19"/>
+      <c r="BR12" s="19"/>
+      <c r="BS12" s="14"/>
+      <c r="BT12" s="14"/>
+      <c r="BU12" s="14"/>
+      <c r="BV12" s="14"/>
+      <c r="BW12" s="14"/>
+      <c r="BX12" s="14"/>
+      <c r="BY12" s="14"/>
+      <c r="BZ12" s="14"/>
     </row>
-    <row r="13" spans="1:78" ht="127.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:78" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <f>ROW()-3</f>
         <v>10</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="12" t="s">
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12" t="s">
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12" t="s">
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12" t="s">
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="12"/>
-      <c r="AW13" s="12"/>
-      <c r="AX13" s="12"/>
-      <c r="AY13" s="12" t="s">
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AZ13" s="12"/>
-      <c r="BA13" s="12"/>
-      <c r="BB13" s="12"/>
-      <c r="BC13" s="12"/>
-      <c r="BD13" s="12"/>
-      <c r="BE13" s="12"/>
-      <c r="BF13" s="12"/>
-      <c r="BG13" s="13" t="s">
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="BH13" s="13"/>
-      <c r="BI13" s="13"/>
-      <c r="BJ13" s="13"/>
-      <c r="BK13" s="18"/>
-      <c r="BL13" s="13"/>
-      <c r="BM13" s="13"/>
-      <c r="BN13" s="13"/>
-      <c r="BO13" s="13"/>
-      <c r="BP13" s="13"/>
-      <c r="BQ13" s="13"/>
-      <c r="BR13" s="13"/>
-      <c r="BS13" s="12"/>
-      <c r="BT13" s="12"/>
-      <c r="BU13" s="12"/>
-      <c r="BV13" s="12"/>
-      <c r="BW13" s="12"/>
-      <c r="BX13" s="12"/>
-      <c r="BY13" s="12"/>
-      <c r="BZ13" s="12"/>
+      <c r="BH13" s="18"/>
+      <c r="BI13" s="18"/>
+      <c r="BJ13" s="18"/>
+      <c r="BK13" s="25"/>
+      <c r="BL13" s="18"/>
+      <c r="BM13" s="18"/>
+      <c r="BN13" s="18"/>
+      <c r="BO13" s="18"/>
+      <c r="BP13" s="18"/>
+      <c r="BQ13" s="18"/>
+      <c r="BR13" s="18"/>
+      <c r="BS13" s="20"/>
+      <c r="BT13" s="20"/>
+      <c r="BU13" s="20"/>
+      <c r="BV13" s="20"/>
+      <c r="BW13" s="20"/>
+      <c r="BX13" s="20"/>
+      <c r="BY13" s="20"/>
+      <c r="BZ13" s="20"/>
     </row>
-    <row r="14" spans="1:78" ht="127.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:78" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="34" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="38" t="s">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38" t="s">
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38" t="s">
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38" t="s">
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
-      <c r="AX14" s="38"/>
-      <c r="AY14" s="38" t="s">
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AZ14" s="38"/>
-      <c r="BA14" s="38"/>
-      <c r="BB14" s="38"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="38"/>
-      <c r="BE14" s="38"/>
-      <c r="BF14" s="38"/>
-      <c r="BG14" s="39" t="s">
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="BH14" s="39"/>
-      <c r="BI14" s="39"/>
-      <c r="BJ14" s="39"/>
-      <c r="BK14" s="40"/>
-      <c r="BL14" s="39"/>
-      <c r="BM14" s="39"/>
-      <c r="BN14" s="39"/>
-      <c r="BO14" s="39"/>
-      <c r="BP14" s="39"/>
-      <c r="BQ14" s="39"/>
-      <c r="BR14" s="39"/>
-      <c r="BS14" s="38"/>
-      <c r="BT14" s="38"/>
-      <c r="BU14" s="38"/>
-      <c r="BV14" s="38"/>
-      <c r="BW14" s="38"/>
-      <c r="BX14" s="38"/>
-      <c r="BY14" s="38"/>
-      <c r="BZ14" s="38"/>
+      <c r="BH14" s="19"/>
+      <c r="BI14" s="19"/>
+      <c r="BJ14" s="19"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="19"/>
+      <c r="BM14" s="19"/>
+      <c r="BN14" s="19"/>
+      <c r="BO14" s="19"/>
+      <c r="BP14" s="19"/>
+      <c r="BQ14" s="19"/>
+      <c r="BR14" s="19"/>
+      <c r="BS14" s="14"/>
+      <c r="BT14" s="14"/>
+      <c r="BU14" s="14"/>
+      <c r="BV14" s="14"/>
+      <c r="BW14" s="14"/>
+      <c r="BX14" s="14"/>
+      <c r="BY14" s="14"/>
+      <c r="BZ14" s="14"/>
     </row>
-    <row r="15" spans="1:78" ht="127.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:78" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="34" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="38" t="s">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38" t="s">
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38" t="s">
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38" t="s">
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="38"/>
-      <c r="AT15" s="38"/>
-      <c r="AU15" s="38"/>
-      <c r="AV15" s="38"/>
-      <c r="AW15" s="38"/>
-      <c r="AX15" s="38"/>
-      <c r="AY15" s="38" t="s">
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AZ15" s="38"/>
-      <c r="BA15" s="38"/>
-      <c r="BB15" s="38"/>
-      <c r="BC15" s="38"/>
-      <c r="BD15" s="38"/>
-      <c r="BE15" s="38"/>
-      <c r="BF15" s="38"/>
-      <c r="BG15" s="39" t="s">
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="BH15" s="39"/>
-      <c r="BI15" s="39"/>
-      <c r="BJ15" s="39"/>
-      <c r="BK15" s="40"/>
-      <c r="BL15" s="39"/>
-      <c r="BM15" s="39"/>
-      <c r="BN15" s="39"/>
-      <c r="BO15" s="39"/>
-      <c r="BP15" s="39"/>
-      <c r="BQ15" s="39"/>
-      <c r="BR15" s="39"/>
-      <c r="BS15" s="38"/>
-      <c r="BT15" s="38"/>
-      <c r="BU15" s="38"/>
-      <c r="BV15" s="38"/>
-      <c r="BW15" s="38"/>
-      <c r="BX15" s="38"/>
-      <c r="BY15" s="38"/>
-      <c r="BZ15" s="38"/>
+      <c r="BH15" s="19"/>
+      <c r="BI15" s="19"/>
+      <c r="BJ15" s="19"/>
+      <c r="BK15" s="21"/>
+      <c r="BL15" s="19"/>
+      <c r="BM15" s="19"/>
+      <c r="BN15" s="19"/>
+      <c r="BO15" s="19"/>
+      <c r="BP15" s="19"/>
+      <c r="BQ15" s="19"/>
+      <c r="BR15" s="19"/>
+      <c r="BS15" s="14"/>
+      <c r="BT15" s="14"/>
+      <c r="BU15" s="14"/>
+      <c r="BV15" s="14"/>
+      <c r="BW15" s="14"/>
+      <c r="BX15" s="14"/>
+      <c r="BY15" s="14"/>
+      <c r="BZ15" s="14"/>
     </row>
-    <row r="16" spans="1:78" ht="300.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:78" ht="300.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="34" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="38" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38" t="s">
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38" t="s">
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="41" t="s">
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="42"/>
-      <c r="AN16" s="42"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="42"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="43"/>
-      <c r="AY16" s="41" t="s">
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="42"/>
-      <c r="BB16" s="42"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="43"/>
-      <c r="BG16" s="39" t="s">
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="16"/>
+      <c r="BF16" s="17"/>
+      <c r="BG16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="BH16" s="39"/>
-      <c r="BI16" s="39"/>
-      <c r="BJ16" s="39"/>
-      <c r="BK16" s="41"/>
-      <c r="BL16" s="42"/>
-      <c r="BM16" s="42"/>
-      <c r="BN16" s="43"/>
-      <c r="BO16" s="41"/>
-      <c r="BP16" s="42"/>
-      <c r="BQ16" s="42"/>
-      <c r="BR16" s="43"/>
-      <c r="BS16" s="41"/>
-      <c r="BT16" s="42"/>
-      <c r="BU16" s="42"/>
-      <c r="BV16" s="42"/>
-      <c r="BW16" s="42"/>
-      <c r="BX16" s="42"/>
-      <c r="BY16" s="42"/>
-      <c r="BZ16" s="43"/>
+      <c r="BH16" s="19"/>
+      <c r="BI16" s="19"/>
+      <c r="BJ16" s="19"/>
+      <c r="BK16" s="15"/>
+      <c r="BL16" s="16"/>
+      <c r="BM16" s="16"/>
+      <c r="BN16" s="17"/>
+      <c r="BO16" s="15"/>
+      <c r="BP16" s="16"/>
+      <c r="BQ16" s="16"/>
+      <c r="BR16" s="17"/>
+      <c r="BS16" s="15"/>
+      <c r="BT16" s="16"/>
+      <c r="BU16" s="16"/>
+      <c r="BV16" s="16"/>
+      <c r="BW16" s="16"/>
+      <c r="BX16" s="16"/>
+      <c r="BY16" s="16"/>
+      <c r="BZ16" s="17"/>
     </row>
-    <row r="17" spans="1:78" ht="134.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:78" ht="134.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="12" t="s">
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12" t="s">
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12" t="s">
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12" t="s">
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="12"/>
-      <c r="AX17" s="12"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
+      <c r="AU17" s="20"/>
+      <c r="AV17" s="20"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
       <c r="AY17" s="9" t="s">
         <v>76</v>
       </c>
@@ -3142,12 +3142,12 @@
       <c r="BD17" s="10"/>
       <c r="BE17" s="10"/>
       <c r="BF17" s="11"/>
-      <c r="BG17" s="13" t="s">
+      <c r="BG17" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="BH17" s="13"/>
-      <c r="BI17" s="13"/>
-      <c r="BJ17" s="13"/>
+      <c r="BH17" s="18"/>
+      <c r="BI17" s="18"/>
+      <c r="BJ17" s="18"/>
       <c r="BK17" s="9"/>
       <c r="BL17" s="10"/>
       <c r="BM17" s="10"/>
@@ -3165,56 +3165,56 @@
       <c r="BY17" s="10"/>
       <c r="BZ17" s="11"/>
     </row>
-    <row r="18" spans="1:78" ht="134.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:78" ht="134.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="12" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12" t="s">
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="13" t="s">
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
       <c r="AJ18" s="9" t="s">
         <v>63</v>
       </c>
@@ -3242,12 +3242,12 @@
       <c r="BD18" s="10"/>
       <c r="BE18" s="10"/>
       <c r="BF18" s="11"/>
-      <c r="BG18" s="13" t="s">
+      <c r="BG18" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="BH18" s="13"/>
-      <c r="BI18" s="13"/>
-      <c r="BJ18" s="13"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="18"/>
+      <c r="BJ18" s="18"/>
       <c r="BK18" s="9"/>
       <c r="BL18" s="10"/>
       <c r="BM18" s="10"/>
@@ -3265,56 +3265,56 @@
       <c r="BY18" s="10"/>
       <c r="BZ18" s="11"/>
     </row>
-    <row r="19" spans="1:78" ht="153" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:78" ht="153" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="12" t="s">
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12" t="s">
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="13" t="s">
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
       <c r="AJ19" s="9" t="s">
         <v>64</v>
       </c>
@@ -3342,12 +3342,12 @@
       <c r="BD19" s="10"/>
       <c r="BE19" s="10"/>
       <c r="BF19" s="11"/>
-      <c r="BG19" s="13" t="s">
+      <c r="BG19" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="BH19" s="13"/>
-      <c r="BI19" s="13"/>
-      <c r="BJ19" s="13"/>
+      <c r="BH19" s="18"/>
+      <c r="BI19" s="18"/>
+      <c r="BJ19" s="18"/>
       <c r="BK19" s="9"/>
       <c r="BL19" s="10"/>
       <c r="BM19" s="10"/>
@@ -3365,73 +3365,73 @@
       <c r="BY19" s="10"/>
       <c r="BZ19" s="11"/>
     </row>
-    <row r="20" spans="1:78" ht="198" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:78" ht="198" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="12" t="s">
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12" t="s">
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="13" t="s">
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="12" t="s">
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
       <c r="AY20" s="9" t="s">
         <v>22</v>
       </c>
@@ -3442,12 +3442,12 @@
       <c r="BD20" s="10"/>
       <c r="BE20" s="10"/>
       <c r="BF20" s="11"/>
-      <c r="BG20" s="13" t="s">
+      <c r="BG20" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="BH20" s="13"/>
-      <c r="BI20" s="13"/>
-      <c r="BJ20" s="13"/>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="18"/>
       <c r="BK20" s="9"/>
       <c r="BL20" s="10"/>
       <c r="BM20" s="10"/>
@@ -3465,24 +3465,24 @@
       <c r="BY20" s="10"/>
       <c r="BZ20" s="11"/>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
@@ -3553,17 +3553,191 @@
     </row>
   </sheetData>
   <mergeCells count="220">
-    <mergeCell ref="BS21:BZ21"/>
-    <mergeCell ref="BS20:BZ20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="R21:Z21"/>
-    <mergeCell ref="AA21:AI21"/>
-    <mergeCell ref="AJ21:AX21"/>
-    <mergeCell ref="AY21:BF21"/>
-    <mergeCell ref="BG21:BJ21"/>
-    <mergeCell ref="BK21:BN21"/>
-    <mergeCell ref="BO21:BR21"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="AY17:BF17"/>
+    <mergeCell ref="BS2:BZ2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="AA3:AI3"/>
+    <mergeCell ref="AJ3:AX3"/>
+    <mergeCell ref="AY3:BF3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="AA2:AI2"/>
+    <mergeCell ref="AJ2:AX2"/>
+    <mergeCell ref="AY2:BF2"/>
+    <mergeCell ref="BG3:BJ3"/>
+    <mergeCell ref="BK3:BN3"/>
+    <mergeCell ref="BO3:BR3"/>
+    <mergeCell ref="BS3:BZ3"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="BS4:BZ4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="R5:Z5"/>
+    <mergeCell ref="AA5:AI5"/>
+    <mergeCell ref="AJ5:AX5"/>
+    <mergeCell ref="AY5:BF5"/>
+    <mergeCell ref="BG5:BJ5"/>
+    <mergeCell ref="BK5:BN5"/>
+    <mergeCell ref="BO5:BR5"/>
+    <mergeCell ref="BS5:BZ5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="R4:Z4"/>
+    <mergeCell ref="AA4:AI4"/>
+    <mergeCell ref="AJ4:AX4"/>
+    <mergeCell ref="AY4:BF4"/>
+    <mergeCell ref="BG4:BJ4"/>
+    <mergeCell ref="BK4:BN4"/>
+    <mergeCell ref="BO4:BR4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="BS6:BZ6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:Z7"/>
+    <mergeCell ref="AA7:AI7"/>
+    <mergeCell ref="AJ7:AX7"/>
+    <mergeCell ref="AY7:BF7"/>
+    <mergeCell ref="BG7:BJ7"/>
+    <mergeCell ref="BK7:BN7"/>
+    <mergeCell ref="BO7:BR7"/>
+    <mergeCell ref="BS7:BZ7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="AA6:AI6"/>
+    <mergeCell ref="AJ6:AX6"/>
+    <mergeCell ref="AY6:BF6"/>
+    <mergeCell ref="BG6:BJ6"/>
+    <mergeCell ref="BK6:BN6"/>
+    <mergeCell ref="BO6:BR6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="BS8:BZ8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:Z9"/>
+    <mergeCell ref="AA9:AI9"/>
+    <mergeCell ref="AJ9:AX9"/>
+    <mergeCell ref="AY9:BF9"/>
+    <mergeCell ref="BG9:BJ9"/>
+    <mergeCell ref="BK9:BN9"/>
+    <mergeCell ref="BO9:BR9"/>
+    <mergeCell ref="BS9:BZ9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:Z8"/>
+    <mergeCell ref="AA8:AI8"/>
+    <mergeCell ref="AJ8:AX8"/>
+    <mergeCell ref="AY8:BF8"/>
+    <mergeCell ref="BG8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="BO8:BR8"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="BS10:BZ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:Z11"/>
+    <mergeCell ref="AA11:AI11"/>
+    <mergeCell ref="AJ11:AX11"/>
+    <mergeCell ref="AY11:BF11"/>
+    <mergeCell ref="BG11:BJ11"/>
+    <mergeCell ref="BK11:BN11"/>
+    <mergeCell ref="BO11:BR11"/>
+    <mergeCell ref="BS11:BZ11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:Z10"/>
+    <mergeCell ref="AA10:AI10"/>
+    <mergeCell ref="AJ10:AX10"/>
+    <mergeCell ref="AY10:BF10"/>
+    <mergeCell ref="BG10:BJ10"/>
+    <mergeCell ref="BK10:BN10"/>
+    <mergeCell ref="BO10:BR10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="BS12:BZ12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="AA13:AI13"/>
+    <mergeCell ref="AJ13:AX13"/>
+    <mergeCell ref="AY13:BF13"/>
+    <mergeCell ref="BG13:BJ13"/>
+    <mergeCell ref="BK13:BN13"/>
+    <mergeCell ref="BO13:BR13"/>
+    <mergeCell ref="BS13:BZ13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:Z12"/>
+    <mergeCell ref="AA12:AI12"/>
+    <mergeCell ref="AJ12:AX12"/>
+    <mergeCell ref="AY12:BF12"/>
+    <mergeCell ref="BG12:BJ12"/>
+    <mergeCell ref="BK12:BN12"/>
+    <mergeCell ref="BO12:BR12"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="BS14:BZ14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:Z15"/>
+    <mergeCell ref="AA15:AI15"/>
+    <mergeCell ref="AJ15:AX15"/>
+    <mergeCell ref="AY15:BF15"/>
+    <mergeCell ref="BG15:BJ15"/>
+    <mergeCell ref="BK15:BN15"/>
+    <mergeCell ref="BO15:BR15"/>
+    <mergeCell ref="BS15:BZ15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:Z14"/>
+    <mergeCell ref="AA14:AI14"/>
+    <mergeCell ref="AJ14:AX14"/>
+    <mergeCell ref="AY14:BF14"/>
+    <mergeCell ref="BG14:BJ14"/>
+    <mergeCell ref="BK14:BN14"/>
+    <mergeCell ref="BO14:BR14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="BS16:BZ16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="R18:Z18"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="R20:Z20"/>
+    <mergeCell ref="AA20:AI20"/>
+    <mergeCell ref="AJ20:AX20"/>
+    <mergeCell ref="AY20:BF20"/>
+    <mergeCell ref="BS17:BZ17"/>
+    <mergeCell ref="BG19:BJ19"/>
+    <mergeCell ref="BK19:BN19"/>
+    <mergeCell ref="BO19:BR19"/>
+    <mergeCell ref="BS19:BZ19"/>
+    <mergeCell ref="BS18:BZ18"/>
+    <mergeCell ref="BG17:BJ17"/>
+    <mergeCell ref="BK17:BN17"/>
+    <mergeCell ref="BO17:BR17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="R19:Z19"/>
+    <mergeCell ref="AA19:AI19"/>
+    <mergeCell ref="BK16:BN16"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="L16:Q16"/>
     <mergeCell ref="R16:Z16"/>
@@ -3588,191 +3762,17 @@
     <mergeCell ref="R17:Z17"/>
     <mergeCell ref="AA17:AI17"/>
     <mergeCell ref="AJ17:AX17"/>
-    <mergeCell ref="BS16:BZ16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="R18:Z18"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="R20:Z20"/>
-    <mergeCell ref="AA20:AI20"/>
-    <mergeCell ref="AJ20:AX20"/>
-    <mergeCell ref="AY20:BF20"/>
-    <mergeCell ref="BS17:BZ17"/>
-    <mergeCell ref="BG19:BJ19"/>
-    <mergeCell ref="BK19:BN19"/>
-    <mergeCell ref="BO19:BR19"/>
-    <mergeCell ref="BS19:BZ19"/>
-    <mergeCell ref="BS18:BZ18"/>
-    <mergeCell ref="BG17:BJ17"/>
-    <mergeCell ref="BK17:BN17"/>
-    <mergeCell ref="BO17:BR17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="R19:Z19"/>
-    <mergeCell ref="AA19:AI19"/>
-    <mergeCell ref="BK16:BN16"/>
-    <mergeCell ref="BS14:BZ14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:Z15"/>
-    <mergeCell ref="AA15:AI15"/>
-    <mergeCell ref="AJ15:AX15"/>
-    <mergeCell ref="AY15:BF15"/>
-    <mergeCell ref="BG15:BJ15"/>
-    <mergeCell ref="BK15:BN15"/>
-    <mergeCell ref="BO15:BR15"/>
-    <mergeCell ref="BS15:BZ15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:Z14"/>
-    <mergeCell ref="AA14:AI14"/>
-    <mergeCell ref="AJ14:AX14"/>
-    <mergeCell ref="AY14:BF14"/>
-    <mergeCell ref="BG14:BJ14"/>
-    <mergeCell ref="BK14:BN14"/>
-    <mergeCell ref="BO14:BR14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="BS12:BZ12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="AA13:AI13"/>
-    <mergeCell ref="AJ13:AX13"/>
-    <mergeCell ref="AY13:BF13"/>
-    <mergeCell ref="BG13:BJ13"/>
-    <mergeCell ref="BK13:BN13"/>
-    <mergeCell ref="BO13:BR13"/>
-    <mergeCell ref="BS13:BZ13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:Z12"/>
-    <mergeCell ref="AA12:AI12"/>
-    <mergeCell ref="AJ12:AX12"/>
-    <mergeCell ref="AY12:BF12"/>
-    <mergeCell ref="BG12:BJ12"/>
-    <mergeCell ref="BK12:BN12"/>
-    <mergeCell ref="BO12:BR12"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="BS10:BZ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:Z11"/>
-    <mergeCell ref="AA11:AI11"/>
-    <mergeCell ref="AJ11:AX11"/>
-    <mergeCell ref="AY11:BF11"/>
-    <mergeCell ref="BG11:BJ11"/>
-    <mergeCell ref="BK11:BN11"/>
-    <mergeCell ref="BO11:BR11"/>
-    <mergeCell ref="BS11:BZ11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:Z10"/>
-    <mergeCell ref="AA10:AI10"/>
-    <mergeCell ref="AJ10:AX10"/>
-    <mergeCell ref="AY10:BF10"/>
-    <mergeCell ref="BG10:BJ10"/>
-    <mergeCell ref="BK10:BN10"/>
-    <mergeCell ref="BO10:BR10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="BS8:BZ8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:Z9"/>
-    <mergeCell ref="AA9:AI9"/>
-    <mergeCell ref="AJ9:AX9"/>
-    <mergeCell ref="AY9:BF9"/>
-    <mergeCell ref="BG9:BJ9"/>
-    <mergeCell ref="BK9:BN9"/>
-    <mergeCell ref="BO9:BR9"/>
-    <mergeCell ref="BS9:BZ9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:Z8"/>
-    <mergeCell ref="AA8:AI8"/>
-    <mergeCell ref="AJ8:AX8"/>
-    <mergeCell ref="AY8:BF8"/>
-    <mergeCell ref="BG8:BJ8"/>
-    <mergeCell ref="BK8:BN8"/>
-    <mergeCell ref="BO8:BR8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="BS6:BZ6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:Z7"/>
-    <mergeCell ref="AA7:AI7"/>
-    <mergeCell ref="AJ7:AX7"/>
-    <mergeCell ref="AY7:BF7"/>
-    <mergeCell ref="BG7:BJ7"/>
-    <mergeCell ref="BK7:BN7"/>
-    <mergeCell ref="BO7:BR7"/>
-    <mergeCell ref="BS7:BZ7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:Z6"/>
-    <mergeCell ref="AA6:AI6"/>
-    <mergeCell ref="AJ6:AX6"/>
-    <mergeCell ref="AY6:BF6"/>
-    <mergeCell ref="BG6:BJ6"/>
-    <mergeCell ref="BK6:BN6"/>
-    <mergeCell ref="BO6:BR6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="BS4:BZ4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="R5:Z5"/>
-    <mergeCell ref="AA5:AI5"/>
-    <mergeCell ref="AJ5:AX5"/>
-    <mergeCell ref="AY5:BF5"/>
-    <mergeCell ref="BG5:BJ5"/>
-    <mergeCell ref="BK5:BN5"/>
-    <mergeCell ref="BO5:BR5"/>
-    <mergeCell ref="BS5:BZ5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="R4:Z4"/>
-    <mergeCell ref="AA4:AI4"/>
-    <mergeCell ref="AJ4:AX4"/>
-    <mergeCell ref="AY4:BF4"/>
-    <mergeCell ref="BG4:BJ4"/>
-    <mergeCell ref="BK4:BN4"/>
-    <mergeCell ref="BO4:BR4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="BS2:BZ2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="AA3:AI3"/>
-    <mergeCell ref="AJ3:AX3"/>
-    <mergeCell ref="AY3:BF3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="AA2:AI2"/>
-    <mergeCell ref="AJ2:AX2"/>
-    <mergeCell ref="AY2:BF2"/>
-    <mergeCell ref="BG3:BJ3"/>
-    <mergeCell ref="BK3:BN3"/>
-    <mergeCell ref="BO3:BR3"/>
-    <mergeCell ref="BS3:BZ3"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="AY17:BF17"/>
+    <mergeCell ref="BS21:BZ21"/>
+    <mergeCell ref="BS20:BZ20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="R21:Z21"/>
+    <mergeCell ref="AA21:AI21"/>
+    <mergeCell ref="AJ21:AX21"/>
+    <mergeCell ref="AY21:BF21"/>
+    <mergeCell ref="BG21:BJ21"/>
+    <mergeCell ref="BK21:BN21"/>
+    <mergeCell ref="BO21:BR21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
